--- a/Finalize logic tree/Dodge_Ram 1500_No start.xlsx
+++ b/Finalize logic tree/Dodge_Ram 1500_No start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C34447-BD0C-462F-A8BE-87E00670757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB54E48-869E-44DA-ACEE-ECB29F614872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{825C8EF0-2DF6-47F6-B984-7FBEC5C8DBA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Node1</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Problem:When you insert your key into your vehicles ignition and turn it to the accessory "on" position, does the dashboard, radio, etc. light up normally, does it all light up but it seems dim or done nothing comes on at all?</t>
+  </si>
+  <si>
+    <t>Problem:When you insert your key into your vehicles ignition and turn it to the accessory 'on' position, does the dashboard, radio, etc. light up normally, does it all light up but it seems dim or done nothing comes on at all?</t>
   </si>
 </sst>
 </file>
@@ -500,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFEB841-D513-4B6C-A96B-C1EE5066AFCF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +605,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
